--- a/biology/Botanique/Catarratto_bianco_comune/Catarratto_bianco_comune.xlsx
+++ b/biology/Botanique/Catarratto_bianco_comune/Catarratto_bianco_comune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le catarratto bianco comune est un cépage italien de raisins blanc de la famille des catarratto.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il provient du sud de l'Italie. Le cépage est connu depuis le XVIIe siècle sur l'île de Sicile.
 Il est classé cépage d'appoint en DOC Alcamo et Contea di Sclafani.
@@ -546,7 +560,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc avec des traces de carmin.
 Jeunes feuilles duveteuses, jaunâtres.
@@ -578,7 +594,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque hâtive : 25 jours après le chasselas.
 </t>
@@ -609,7 +627,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille moyenne. La grappe est cylindrique, compacte et ailée. Le cépage est de bonne vigueur et d'une fertilité bonne mais irrégulière.
 Il donne des vins blancs de qualité et assez alcoolique titrant 14 % vol ou plus.
@@ -641,7 +661,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le catarratto bianco comune est connu sous les noms de catarratto bertolaro, catarratto bianco latino, catarratto bianco nostrale, catarratto carteddaro.
 </t>
